--- a/Import/sinhvien.xlsx
+++ b/Import/sinhvien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017-2018\HK1\DBCL&amp;KTPM\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017-2018\HK2\BTPM\BaoTriPhanMem\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,8 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
